--- a/blocks/inventarios/asignarInventarioC/gestionContratistas/archivo/archivo_contratista1.xlsx
+++ b/blocks/inventarios/asignarInventarioC/gestionContratistas/archivo/archivo_contratista1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Vigencia</t>
   </si>
@@ -443,7 +443,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -491,9 +491,6 @@
       <c r="A2" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="C2" s="0" t="n">
         <v>1026276984</v>
       </c>
@@ -529,20 +526,17 @@
       <c r="B3" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1026276984</v>
-      </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>2</v>
@@ -567,17 +561,14 @@
       <c r="C4" s="0" t="n">
         <v>1237651763</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" s="0" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>10</v>
@@ -603,10 +594,10 @@
         <v>1237651763</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>2015</v>
@@ -636,18 +627,6 @@
       </c>
       <c r="C6" s="0" t="n">
         <v>5535353533</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>2015</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>2</v>
